--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/transformations-downgrade.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/transformations-downgrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F646A0E9-AFDF-4723-BA4B-798C11E8C2FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2563ADC8-C91F-4EE8-9209-10DE333D503B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" tabRatio="858" xr2:uid="{9E23536D-03D7-486C-92D0-E50AB185E4CC}"/>
   </bookViews>
@@ -5468,7 +5468,7 @@
         <v>530</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/transformations-downgrade.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/transformations-downgrade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2563ADC8-C91F-4EE8-9209-10DE333D503B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD09CFF-4163-4AB3-9EB7-9190F0BFF9B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" tabRatio="858" xr2:uid="{9E23536D-03D7-486C-92D0-E50AB185E4CC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="858" xr2:uid="{9E23536D-03D7-486C-92D0-E50AB185E4CC}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="2" r:id="rId1"/>
@@ -49,8 +49,8 @@
     <sheet name="Tag_Annotation" sheetId="21" r:id="rId34"/>
     <sheet name="Term_Annotation" sheetId="22" r:id="rId35"/>
     <sheet name="Timestamp_Annotation" sheetId="23" r:id="rId36"/>
-    <sheet name="Unit" sheetId="53" r:id="rId37"/>
-    <sheet name="size" sheetId="54" r:id="rId38"/>
+    <sheet name="size" sheetId="54" r:id="rId37"/>
+    <sheet name="width" sheetId="58" r:id="rId38"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="547">
   <si>
     <t/>
   </si>
@@ -1330,10 +1330,6 @@
     <t>:size</t>
   </si>
   <si>
-    <t>xsd:long</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[binFile:6]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1414,18 +1410,6 @@
   </si>
   <si>
     <t>English Attribution</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>base unit</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1436,63 +1420,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接頭辞</t>
-    <rPh sb="0" eb="3">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本単位</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:baseUnit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000046</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:nm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"nano-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000300</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Size</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1520,10 +1447,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit:um</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixelType</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1551,10 +1474,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/unit/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixel type</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1936,14 +1855,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit:pt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"point"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:nonNegativeLong</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2048,19 +1959,57 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>PATO:0000117</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[size:2pt]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[size:2pt]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:pt</t>
+    <t>foaf:Person</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PATO:0000921</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[width:1pt]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[width:2pt]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>commnet anntation value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rdf:value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xsd:langString</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>幅</t>
+    <rPh sb="0" eb="1">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:pt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:um</t>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2068,7 +2017,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2097,13 +2046,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2137,7 +2079,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2158,9 +2100,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2493,14 +2432,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="105.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="105.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2508,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2516,7 +2455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2524,7 +2463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2532,7 +2471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2540,7 +2479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2548,7 +2487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>156</v>
       </c>
@@ -2556,7 +2495,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>158</v>
       </c>
@@ -2564,39 +2503,39 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>392</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>161</v>
       </c>
@@ -2604,7 +2543,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>163</v>
       </c>
@@ -2612,7 +2551,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>165</v>
       </c>
@@ -2620,7 +2559,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>167</v>
       </c>
@@ -2628,7 +2567,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>169</v>
       </c>
@@ -2636,15 +2575,15 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>171</v>
       </c>
@@ -2652,7 +2591,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>172</v>
       </c>
@@ -2660,7 +2599,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>173</v>
       </c>
@@ -2668,7 +2607,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>174</v>
       </c>
@@ -2676,44 +2615,44 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>425</v>
+        <v>545</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>426</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -2728,23 +2667,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2755,7 +2694,7 @@
         <v>181</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>70</v>
@@ -2764,10 +2703,10 @@
         <v>67</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>64</v>
@@ -2794,7 +2733,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -2814,7 +2753,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -2823,46 +2762,46 @@
         <v>186</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>74</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -2876,7 +2815,7 @@
         <v>75</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>49</v>
@@ -2888,7 +2827,7 @@
         <v>76</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>76</v>
@@ -2906,24 +2845,24 @@
         <v>76</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>238</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="D5" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -2935,7 +2874,7 @@
         <v>7</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J5" s="1">
         <v>3</v>
@@ -2959,7 +2898,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>238</v>
       </c>
@@ -2970,7 +2909,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>238</v>
       </c>
@@ -2993,18 +2932,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3021,10 +2960,10 @@
         <v>81</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -3034,7 +2973,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -3049,10 +2988,10 @@
         <v>83</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3069,15 +3008,15 @@
         <v>249</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>275</v>
@@ -3086,15 +3025,15 @@
         <v>273</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>275</v>
@@ -3103,12 +3042,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>275</v>
@@ -3129,35 +3068,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9"/>
-    <col min="6" max="6" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="1"/>
+    <col min="6" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -3166,7 +3105,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -3175,18 +3114,18 @@
         <v>186</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>192</v>
@@ -3198,12 +3137,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -3224,15 +3163,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3243,14 +3182,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -3259,7 +3198,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3270,7 +3209,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>275</v>
       </c>
@@ -3278,7 +3217,7 @@
         <v>-2147483648</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>322</v>
       </c>
@@ -3298,17 +3237,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3325,7 +3264,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -3334,7 +3273,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -3349,7 +3288,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3363,10 +3302,10 @@
         <v>91</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>244</v>
       </c>
@@ -3380,7 +3319,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>246</v>
       </c>
@@ -3394,7 +3333,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>248</v>
       </c>
@@ -3408,15 +3347,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>427</v>
+      <c r="D8" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -3434,16 +3373,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3460,7 +3399,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -3471,7 +3410,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -3486,7 +3425,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3503,56 +3442,56 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>277</v>
@@ -3570,15 +3509,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3589,14 +3528,14 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -3605,7 +3544,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3616,7 +3555,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>256</v>
       </c>
@@ -3624,7 +3563,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>257</v>
       </c>
@@ -3632,7 +3571,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>259</v>
       </c>
@@ -3640,7 +3579,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>259</v>
       </c>
@@ -3648,7 +3587,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>259</v>
       </c>
@@ -3656,7 +3595,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>259</v>
       </c>
@@ -3664,7 +3603,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>259</v>
       </c>
@@ -3672,7 +3611,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>259</v>
       </c>
@@ -3680,7 +3619,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>259</v>
       </c>
@@ -3688,7 +3627,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>259</v>
       </c>
@@ -3696,7 +3635,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>261</v>
       </c>
@@ -3704,7 +3643,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>277</v>
       </c>
@@ -3712,7 +3651,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>277</v>
       </c>
@@ -3732,24 +3671,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3772,7 +3711,7 @@
         <v>297</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>301</v>
@@ -3790,10 +3729,10 @@
         <v>305</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -3811,7 +3750,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -3832,7 +3771,7 @@
         <v>309</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>313</v>
@@ -3850,10 +3789,10 @@
         <v>317</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3870,13 +3809,13 @@
         <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>318</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>320</v>
@@ -3885,7 +3824,7 @@
         <v>192</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>192</v>
@@ -3894,15 +3833,15 @@
         <v>321</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -3914,12 +3853,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>286</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -3931,10 +3870,10 @@
         <v>322</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>322</v>
@@ -3943,10 +3882,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
@@ -3955,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>323</v>
       </c>
@@ -3966,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>324</v>
       </c>
@@ -3977,7 +3916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>325</v>
       </c>
@@ -3988,7 +3927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>326</v>
       </c>
@@ -3999,7 +3938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>327</v>
       </c>
@@ -4010,7 +3949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>328</v>
       </c>
@@ -4021,7 +3960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>343</v>
       </c>
@@ -4032,7 +3971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>329</v>
       </c>
@@ -4043,7 +3982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>344</v>
       </c>
@@ -4054,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>345</v>
       </c>
@@ -4065,7 +4004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>346</v>
       </c>
@@ -4076,7 +4015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>347</v>
       </c>
@@ -4099,19 +4038,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="16.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4143,7 +4082,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -4157,7 +4096,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -4187,7 +4126,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -4219,12 +4158,12 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -4242,7 +4181,7 @@
         <v>336</v>
       </c>
       <c r="I5" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>334</v>
@@ -4260,41 +4199,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -4306,36 +4245,36 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
@@ -4356,7 +4295,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>334</v>
       </c>
@@ -4391,16 +4330,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4414,7 +4353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -4422,7 +4361,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -4434,7 +4373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -4448,15 +4387,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -4471,25 +4410,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="22.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>133</v>
@@ -4507,7 +4446,7 @@
         <v>297</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>304</v>
@@ -4534,7 +4473,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -4553,7 +4492,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -4571,7 +4510,7 @@
         <v>309</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>316</v>
@@ -4598,7 +4537,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -4618,7 +4557,7 @@
         <v>332</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>192</v>
@@ -4630,27 +4569,27 @@
         <v>320</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -4662,10 +4601,10 @@
         <v>336</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="H5" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>322</v>
@@ -4674,7 +4613,7 @@
         <v>322</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -4686,15 +4625,15 @@
         <v>0</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>337</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -4703,15 +4642,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -4720,15 +4659,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>285</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -4737,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -4752,18 +4691,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4783,7 +4722,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -4793,7 +4732,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -4811,7 +4750,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -4828,15 +4767,15 @@
         <v>320</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>290</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>323</v>
@@ -4844,11 +4783,11 @@
       <c r="E5" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F5" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>290</v>
       </c>
@@ -4856,7 +4795,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>290</v>
       </c>
@@ -4864,7 +4803,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>290</v>
       </c>
@@ -4884,19 +4823,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4922,7 +4861,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -4934,7 +4873,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -4958,7 +4897,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -4981,15 +4920,15 @@
         <v>320</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>327</v>
@@ -5003,11 +4942,11 @@
       <c r="G5" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H5" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>283</v>
       </c>
@@ -5015,7 +4954,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>283</v>
       </c>
@@ -5023,7 +4962,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>283</v>
       </c>
@@ -5031,12 +4970,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>291</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>344</v>
@@ -5047,11 +4986,11 @@
       <c r="G9" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H9" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>291</v>
       </c>
@@ -5059,7 +4998,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>291</v>
       </c>
@@ -5067,7 +5006,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>291</v>
       </c>
@@ -5087,19 +5026,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="9" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5134,7 +5073,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -5149,7 +5088,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -5182,7 +5121,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -5214,15 +5153,15 @@
         <v>320</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5245,16 +5184,16 @@
       <c r="J5" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K5" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>293</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -5274,16 +5213,16 @@
       <c r="J6" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K6" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -5303,8 +5242,8 @@
       <c r="J7" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>555</v>
+      <c r="K7" s="4" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -5319,21 +5258,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>300</v>
@@ -5345,7 +5284,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -5354,7 +5293,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -5369,12 +5308,12 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>319</v>
@@ -5383,36 +5322,36 @@
         <v>335</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="10"/>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -5426,134 +5365,134 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>271</v>
@@ -5572,16 +5511,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="22.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="22.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5601,7 +5540,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -5613,7 +5552,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -5628,10 +5567,10 @@
         <v>351</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -5651,12 +5590,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>348</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>352</v>
@@ -5668,12 +5607,12 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>349</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>352</v>
@@ -5698,18 +5637,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5729,7 +5668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -5741,7 +5680,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -5756,10 +5695,10 @@
         <v>351</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -5779,12 +5718,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>263</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>357</v>
@@ -5804,21 +5743,22 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E8A63D-CFFD-4DB6-B731-67110CA28E2D}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5834,8 +5774,11 @@
       <c r="E1" s="5" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -5845,8 +5788,9 @@
         <v>20</v>
       </c>
       <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -5860,8 +5804,11 @@
       <c r="E3" s="5" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -5877,19 +5824,22 @@
       <c r="E4" s="5" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F4" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>264</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>357</v>
+        <v>464</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>197</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -5904,18 +5854,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5935,7 +5885,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -5947,7 +5897,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -5962,10 +5912,10 @@
         <v>351</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -5985,12 +5935,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>265</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>357</v>
@@ -6014,19 +5964,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="1"/>
+    <col min="7" max="7" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6049,7 +5999,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -6060,7 +6010,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -6081,7 +6031,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -6104,13 +6054,13 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>193</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>194</v>
@@ -6122,23 +6072,23 @@
         <v>196</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>200</v>
@@ -6150,20 +6100,20 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>194</v>
@@ -6175,47 +6125,47 @@
         <v>196</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -6230,18 +6180,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6261,7 +6211,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -6273,7 +6223,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -6288,10 +6238,10 @@
         <v>351</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -6308,15 +6258,15 @@
         <v>191</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>266</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>357</v>
@@ -6325,7 +6275,7 @@
         <v>197</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -6340,17 +6290,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6364,10 +6314,10 @@
         <v>359</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -6378,7 +6328,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -6390,38 +6340,38 @@
         <v>360</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -6436,18 +6386,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6464,10 +6414,10 @@
         <v>350</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -6479,7 +6429,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -6494,10 +6444,10 @@
         <v>351</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -6514,15 +6464,15 @@
         <v>191</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>267</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>357</v>
@@ -6534,7 +6484,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>267</v>
       </c>
@@ -6554,17 +6504,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6584,7 +6534,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -6596,7 +6546,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -6611,10 +6561,10 @@
         <v>351</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -6634,12 +6584,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>268</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>357</v>
@@ -6663,18 +6613,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6691,10 +6641,10 @@
         <v>350</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -6706,7 +6656,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -6724,7 +6674,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -6741,15 +6691,15 @@
         <v>191</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>269</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>357</v>
@@ -6758,7 +6708,7 @@
         <v>197</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -6773,18 +6723,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6801,10 +6751,10 @@
         <v>350</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -6816,7 +6766,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -6834,7 +6784,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -6851,15 +6801,15 @@
         <v>191</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>357</v>
@@ -6868,7 +6818,7 @@
         <v>197</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -6883,18 +6833,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6914,7 +6864,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -6926,7 +6876,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -6941,10 +6891,10 @@
         <v>351</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -6964,12 +6914,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>271</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>357</v>
@@ -6978,7 +6928,7 @@
         <v>197</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -6988,23 +6938,23 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4B2D44-E994-402E-8DE4-91547E3F64E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB3F5C-A67A-4F68-880A-C2C28D35EF14}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7012,138 +6962,127 @@
         <v>383</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>387</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D5" t="s">
-        <v>397</v>
-      </c>
-      <c r="E5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>242</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5">
+        <v>100000</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>527</v>
+        <v>507</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB3F5C-A67A-4F68-880A-C2C28D35EF14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A783D9-016F-41F1-BCBF-BA25E564E154}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>399</v>
+        <v>541</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>251</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>401</v>
+        <v>542</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -7152,54 +7091,43 @@
         <v>252</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>375</v>
+        <v>535</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>242</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>376</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
+        <v>536</v>
       </c>
       <c r="C5">
-        <v>100000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>557</v>
+      <c r="D6" s="4" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -7215,18 +7143,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="74.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="31.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7249,7 +7177,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -7264,7 +7192,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -7285,7 +7213,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -7302,18 +7230,18 @@
         <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>534</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>217</v>
@@ -7328,7 +7256,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>212</v>
       </c>
@@ -7336,12 +7264,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>211</v>
@@ -7353,15 +7281,15 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>199</v>
@@ -7370,7 +7298,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>219</v>
       </c>
@@ -7381,7 +7309,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>219</v>
       </c>
@@ -7389,12 +7317,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>214</v>
@@ -7406,12 +7334,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>215</v>
@@ -7420,12 +7348,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>216</v>
@@ -7446,16 +7374,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7469,7 +7397,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -7477,7 +7405,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -7489,7 +7417,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -7503,23 +7431,23 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -7534,19 +7462,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7569,7 +7497,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -7580,7 +7508,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -7601,7 +7529,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -7624,12 +7552,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="D5" s="1">
         <v>123</v>
@@ -7656,15 +7584,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7675,7 +7603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -7684,7 +7612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -7693,7 +7621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -7704,7 +7632,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>226</v>
       </c>
@@ -7724,15 +7652,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7743,14 +7671,14 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -7759,7 +7687,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -7770,12 +7698,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -7790,22 +7718,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7837,7 +7765,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -7853,7 +7781,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -7883,7 +7811,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -7903,7 +7831,7 @@
         <v>61</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>36</v>
+        <v>534</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>36</v>
@@ -7915,12 +7843,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>237</v>
@@ -7944,7 +7872,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>236</v>
       </c>
@@ -7955,7 +7883,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>236</v>
       </c>
@@ -7966,7 +7894,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>236</v>
       </c>
@@ -7974,7 +7902,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>236</v>
       </c>
@@ -7982,7 +7910,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>236</v>
       </c>
@@ -7990,7 +7918,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>236</v>
       </c>
@@ -7998,7 +7926,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>236</v>
       </c>
@@ -8006,7 +7934,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>236</v>
       </c>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/transformations-downgrade.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/transformations-downgrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD09CFF-4163-4AB3-9EB7-9190F0BFF9B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C1F145-5EEB-4DB6-A62D-CF77F7464985}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="858" xr2:uid="{9E23536D-03D7-486C-92D0-E50AB185E4CC}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="611">
   <si>
     <t/>
   </si>
@@ -172,9 +172,6 @@
     <t>:ExperimenterGroup</t>
   </si>
   <si>
-    <t>http://xmlns.com/foaf/0.1/Person</t>
-  </si>
-  <si>
     <t>:Annotation</t>
   </si>
   <si>
@@ -600,10 +597,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/transformations-downgrade/image/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/plate/</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -671,10 +664,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[experimenter:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"John"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -687,18 +676,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[experimenter:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:11]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"Mr"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -711,30 +688,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[experimenter:12]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:13]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:14]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:15]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:16]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:17]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>experimenter</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -849,10 +802,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:image0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2010-02-23T12:51:30</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -869,30 +818,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[channel:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>:AcquisitionMode</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -948,42 +873,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[booleanAnnotation:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[commentAnnotation:4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[doubleAnnotation:5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[fileAnnotation:6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[listAnnotation:7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[longAnnotation:8]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[tagAnnotation:9]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[termAnnotation:10]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[timestampAnnotation:11]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/AcquisitionMode#</t>
   </si>
   <si>
@@ -1019,54 +908,6 @@
     <t>:Shape</t>
   </si>
   <si>
-    <t>[point:shape1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[polyline:shape6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[line:shape7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[label:shape11]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[label:shape10]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[rectangle:shape3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[label:shape4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[polygon:shape5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[polyline:shape6a]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[line:shape7a]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[line:shape7b]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1181,34 +1022,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[point:shape5:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape5:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape5:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape5:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape6:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape6:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape6:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>transform</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1225,10 +1038,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[transform:ractangle:shape3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>:FontFamily</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1237,10 +1046,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[label:shape9]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>theT</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1261,34 +1066,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[point:shape63:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape6a:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape6a:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape6a:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape6a:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[xmlAnnotation:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[xmlAnnotation:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>annotator</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1330,15 +1107,7 @@
     <t>:size</t>
   </si>
   <si>
-    <t>[binFile:6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"dummy.txt"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:binfile:6]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1779,10 +1548,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[detectorSettings:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Detector:1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1819,14 +1584,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[objective:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[detector:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Objective:1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1944,10 +1701,6 @@
   </si>
   <si>
     <t>:AffineTransform</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[font:shape4]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2010,6 +1763,497 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/image/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objective</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detector</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detectorSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rectangle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transform</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>polygon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>polyline</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>font</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>booleanAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>commentAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>doubleAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fileAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>binaryFile</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>listAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>longAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tagAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>termAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestampAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/person/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/objective/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/detector/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/channel/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/detectorSettings/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/bindata/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/point/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/rectangle/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/transform/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/label/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/polygon/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/polyline/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/line/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/font/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/xmlAnnotation/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/booleanAnnotation/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/commentAnnotation/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/doubleAnnotation/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/fileAnnotation/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/binaryFile/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/listAnnotation/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/longAnnotation/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/tagAnnotation/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/termAnnotation/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-downgrade/timestampAnnotation/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter13</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter14</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter15</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter17</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detector:detector1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objective:objective1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:image0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>booleanAnnotation:booleanAnnotation3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>commentAnnotation:commentAnnotation4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>doubleAnnotation:doubleAnnotation5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fileAnnotation:fileAnnotation6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>listAnnotation:listAnnotation7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>longAnnotation:longAnnotation8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tagAnnotation:tagAnnotation9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>termAnnotation:termAnnotation10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestampAnnotation:timestampAnnotation:11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detectorSettings:detectorSettings1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:binfile6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape1</t>
+  </si>
+  <si>
+    <t>point:shape2</t>
+  </si>
+  <si>
+    <t>rectangle:shape3</t>
+  </si>
+  <si>
+    <t>label:shape4</t>
+  </si>
+  <si>
+    <t>polygon:shape5</t>
+  </si>
+  <si>
+    <t>polyline:shape6</t>
+  </si>
+  <si>
+    <t>polyline:shape6a</t>
+  </si>
+  <si>
+    <t>line:shape7</t>
+  </si>
+  <si>
+    <t>line:shape7a</t>
+  </si>
+  <si>
+    <t>line:shape7b</t>
+  </si>
+  <si>
+    <t>label:shape9</t>
+  </si>
+  <si>
+    <t>label:shape10</t>
+  </si>
+  <si>
+    <t>label:shape11</t>
+  </si>
+  <si>
+    <t>point:shape5.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape5.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape5.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape5.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape6.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape6.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape6.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape6.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape6a.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape6a.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape6a.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape6a.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rectangle:shape3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transform:rectangle_shape3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>label:shape4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>label:shape9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>label:shape10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>label:shape11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>font:shape4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>polygon:shape5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>polyline:shape6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>polyline:shape6a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>line:shape7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>line:shape7a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>line:shape7b</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>font:shape2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation:xmlAnnotation1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation:xmlAnnotation2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>binaryFile:binaryFile6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>foaf:Person</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2428,13 +2672,13 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="105.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -2489,175 +2733,384 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>391</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>392</v>
+        <v>334</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>393</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>394</v>
+        <v>336</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>395</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>401</v>
+        <v>343</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>171</v>
+        <v>483</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>175</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>176</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>400</v>
+        <v>173</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>404</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>402</v>
+        <v>342</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>406</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>407</v>
+        <v>347</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>408</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>545</v>
+        <v>349</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>546</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2670,16 +3123,16 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2688,49 +3141,49 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="O1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
@@ -2759,46 +3212,46 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>397</v>
+        <v>339</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>410</v>
+        <v>352</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>481</v>
+        <v>423</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>483</v>
+        <v>425</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>412</v>
+        <v>354</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>417</v>
+        <v>359</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>418</v>
+        <v>360</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
@@ -2806,63 +3259,63 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>374</v>
+        <v>316</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>419</v>
+        <v>361</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>238</v>
+        <v>550</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>440</v>
+        <v>382</v>
       </c>
       <c r="D5" t="s">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>399</v>
+        <v>341</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -2874,7 +3327,7 @@
         <v>7</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
       <c r="J5" s="1">
         <v>3</v>
@@ -2892,32 +3345,32 @@
         <v>1</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>243</v>
+        <v>560</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>244</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>550</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>245</v>
+        <v>561</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>246</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>550</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>247</v>
+        <v>562</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>248</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -2930,16 +3383,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC20C595-95A1-469F-94B0-84FBA71A6D8A}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2948,19 +3403,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>485</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -2979,16 +3434,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>486</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -2996,64 +3451,64 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>487</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>560</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>441</v>
+        <v>383</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="E5" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>488</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" t="s">
         <v>245</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E6" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="E7" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3071,7 +3526,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9"/>
@@ -3084,16 +3539,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>532</v>
+        <v>470</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>490</v>
+        <v>431</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>492</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3111,13 +3566,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>491</v>
+        <v>432</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>493</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -3125,24 +3580,24 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>484</v>
+        <v>426</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>488</v>
+        <v>566</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>489</v>
+        <v>430</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -3176,10 +3631,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -3195,7 +3650,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -3203,15 +3658,15 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -3219,7 +3674,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -3239,11 +3694,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3252,16 +3707,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3279,13 +3734,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -3293,27 +3748,27 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>508</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>244</v>
+        <v>563</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -3321,13 +3776,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>246</v>
+        <v>564</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
@@ -3335,13 +3790,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>248</v>
+        <v>565</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
@@ -3349,13 +3804,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>363</v>
+        <v>567</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>409</v>
+        <v>351</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -3387,16 +3842,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3416,13 +3871,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -3430,71 +3885,71 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>474</v>
+        <v>416</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>475</v>
+        <v>417</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>476</v>
+        <v>418</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>477</v>
+        <v>419</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>478</v>
+        <v>420</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3513,7 +3968,7 @@
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3522,10 +3977,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -3541,7 +3996,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -3549,114 +4004,114 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>282</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>286</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>288</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>289</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>290</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>283</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>291</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>284</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>292</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>293</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>337</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>287</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>285</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -3674,7 +4129,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
@@ -3693,43 +4149,43 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>515</v>
+        <v>454</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>494</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
@@ -3756,40 +4212,40 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>516</v>
+        <v>455</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -3797,51 +4253,51 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>535</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>496</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B5" s="4" t="s">
-        <v>282</v>
+      <c r="B5" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>444</v>
+        <v>386</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -3855,10 +4311,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>286</v>
+        <v>569</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>445</v>
+        <v>387</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -3867,25 +4323,25 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>514</v>
+        <v>453</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>536</v>
+        <v>474</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>446</v>
+        <v>388</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
@@ -3896,7 +4352,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>323</v>
+        <v>581</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -3907,7 +4363,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>324</v>
+        <v>582</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -3918,7 +4374,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>325</v>
+        <v>583</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -3929,7 +4385,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>326</v>
+        <v>584</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
@@ -3940,7 +4396,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>327</v>
+        <v>585</v>
       </c>
       <c r="D11" s="1">
         <v>15</v>
@@ -3951,7 +4407,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>328</v>
+        <v>586</v>
       </c>
       <c r="D12" s="1">
         <v>15</v>
@@ -3962,7 +4418,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>343</v>
+        <v>587</v>
       </c>
       <c r="D13" s="1">
         <v>25</v>
@@ -3973,7 +4429,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>329</v>
+        <v>588</v>
       </c>
       <c r="D14" s="1">
         <v>25</v>
@@ -3984,7 +4440,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>344</v>
+        <v>589</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -3995,7 +4451,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>345</v>
+        <v>590</v>
       </c>
       <c r="D16" s="1">
         <v>10</v>
@@ -4006,7 +4462,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>346</v>
+        <v>591</v>
       </c>
       <c r="D17" s="1">
         <v>20</v>
@@ -4017,7 +4473,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>347</v>
+        <v>592</v>
       </c>
       <c r="D18" s="1">
         <v>20</v>
@@ -4041,12 +4497,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="16.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4055,31 +4511,31 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -4102,28 +4558,28 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -4131,39 +4587,39 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>288</v>
+        <v>593</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>447</v>
+        <v>389</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -4178,13 +4634,13 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="I5" t="s">
-        <v>448</v>
+        <v>390</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>334</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -4201,9 +4657,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4212,25 +4668,25 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>517</v>
+        <v>456</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>518</v>
+        <v>457</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>519</v>
+        <v>458</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>521</v>
+        <v>460</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>522</v>
+        <v>461</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>523</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -4251,22 +4707,22 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>524</v>
+        <v>463</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>525</v>
+        <v>464</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>526</v>
+        <v>465</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>527</v>
+        <v>466</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>528</v>
+        <v>467</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>529</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -4274,30 +4730,30 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>530</v>
+        <v>469</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>334</v>
+        <v>594</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -4389,13 +4845,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -4412,65 +4868,66 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>381</v>
+        <v>323</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>515</v>
+        <v>454</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
@@ -4498,43 +4955,43 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>516</v>
+        <v>455</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -4542,54 +4999,54 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>513</v>
+        <v>452</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>535</v>
+        <v>473</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>289</v>
+        <v>595</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>449</v>
+        <v>391</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -4598,22 +5055,22 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
       <c r="H5" t="s">
-        <v>446</v>
+        <v>388</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>536</v>
+        <v>474</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -4625,15 +5082,15 @@
         <v>0</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>450</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>337</v>
+        <v>596</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>451</v>
+        <v>393</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -4642,15 +5099,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>452</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>287</v>
+        <v>597</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>453</v>
+        <v>395</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -4659,15 +5116,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>452</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>285</v>
+        <v>598</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>454</v>
+        <v>396</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -4676,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>452</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -4694,9 +5151,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -4707,19 +5164,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -4738,16 +5195,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -4755,60 +5212,60 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>535</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>290</v>
+        <v>600</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>455</v>
+        <v>397</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>323</v>
+        <v>581</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>537</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>290</v>
+        <v>600</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>324</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>290</v>
+        <v>600</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>325</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>290</v>
+        <v>600</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>326</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -4840,25 +5297,25 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -4879,22 +5336,22 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -4902,116 +5359,116 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>535</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>283</v>
+        <v>601</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>456</v>
+        <v>398</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>327</v>
+        <v>585</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>537</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>283</v>
+        <v>601</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>328</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>283</v>
+        <v>601</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>343</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>283</v>
+        <v>601</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>329</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>291</v>
+        <v>602</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>457</v>
+        <v>399</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>344</v>
+        <v>589</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>537</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>291</v>
+        <v>602</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>345</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>291</v>
+        <v>602</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>346</v>
+        <v>591</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>291</v>
+        <v>602</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>347</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -5043,34 +5500,34 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -5094,31 +5551,31 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="F3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -5126,42 +5583,42 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>535</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>284</v>
+        <v>603</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>458</v>
+        <v>400</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5176,24 +5633,24 @@
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>537</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>293</v>
+        <v>604</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>459</v>
+        <v>401</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -5208,21 +5665,21 @@
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>537</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>292</v>
+        <v>605</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>460</v>
+        <v>402</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -5237,13 +5694,13 @@
         <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>537</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -5272,16 +5729,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>512</v>
+        <v>451</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -5299,13 +5756,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -5313,43 +5770,43 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>513</v>
+        <v>452</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>374</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
-        <v>514</v>
+        <v>606</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>507</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -5369,7 +5826,7 @@
   <cols>
     <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -5377,10 +5834,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>509</v>
+        <v>448</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>367</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -5396,7 +5853,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>368</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -5404,98 +5861,98 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>511</v>
+        <v>450</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>348</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>511</v>
+        <v>450</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>349</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>511</v>
+        <v>450</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>263</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>511</v>
+        <v>450</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>264</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>511</v>
+        <v>450</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>265</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>511</v>
+        <v>450</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>266</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>511</v>
+        <v>450</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>267</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>511</v>
+        <v>450</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>268</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>511</v>
+        <v>450</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>269</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>511</v>
+        <v>450</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>270</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>511</v>
+        <v>450</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>271</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -5509,12 +5966,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601D4739-5BA5-4417-B7F7-9D3546DE6FF9}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="22.8984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -5525,19 +5984,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -5558,16 +6017,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>504</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -5575,53 +6034,53 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>348</v>
+        <v>607</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>461</v>
+        <v>403</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>352</v>
+        <v>296</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>197</v>
+        <v>539</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>349</v>
+        <v>608</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>462</v>
+        <v>404</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>352</v>
+        <v>296</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>197</v>
+        <v>539</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -5639,12 +6098,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5653,19 +6112,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -5686,16 +6145,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>504</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -5703,33 +6162,33 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>355</v>
+        <v>299</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>263</v>
+        <v>551</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>463</v>
+        <v>405</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>197</v>
+        <v>539</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>1</v>
@@ -5745,15 +6204,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E8A63D-CFFD-4DB6-B731-67110CA28E2D}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -5763,19 +6224,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>538</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -5796,16 +6257,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>539</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -5813,33 +6274,33 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>264</v>
+        <v>552</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>464</v>
+        <v>406</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>197</v>
+        <v>539</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -5856,12 +6317,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5870,19 +6331,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -5903,16 +6364,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>504</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -5920,33 +6381,33 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>265</v>
+        <v>553</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>465</v>
+        <v>407</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>197</v>
+        <v>539</v>
       </c>
       <c r="F5" s="1">
         <v>3.14</v>
@@ -5967,8 +6428,8 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
@@ -5981,22 +6442,22 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -6016,19 +6477,19 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -6036,10 +6497,10 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>28</v>
@@ -6051,121 +6512,121 @@
         <v>28</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="G5" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>199</v>
+      <c r="B8" s="4" t="s">
+        <v>541</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>425</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>203</v>
+      <c r="B9" s="4" t="s">
+        <v>542</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>426</v>
+        <v>368</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>432</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
-        <v>204</v>
+      <c r="B10" s="4" t="s">
+        <v>543</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
-        <v>205</v>
+      <c r="B11" s="4" t="s">
+        <v>544</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>428</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="1" t="s">
-        <v>206</v>
+      <c r="B12" s="4" t="s">
+        <v>545</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
-        <v>207</v>
+      <c r="B13" s="4" t="s">
+        <v>546</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>430</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="1" t="s">
-        <v>208</v>
+      <c r="B14" s="4" t="s">
+        <v>547</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>431</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -6182,12 +6643,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6196,19 +6657,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -6229,16 +6690,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>505</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -6246,36 +6707,36 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>506</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>266</v>
+        <v>554</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>466</v>
+        <v>408</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>197</v>
+        <v>539</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>361</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -6288,12 +6749,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D167A89E-CCE1-4BC2-A037-A330CEDDF968}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
@@ -6305,16 +6768,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -6337,10 +6800,10 @@
         <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -6348,30 +6811,30 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>506</v>
+        <v>445</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>508</v>
+        <v>447</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>361</v>
+        <v>609</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>363</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -6388,12 +6851,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6402,19 +6865,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>367</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -6435,16 +6898,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>368</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -6452,44 +6915,44 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>267</v>
+        <v>555</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>467</v>
+        <v>409</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>197</v>
+        <v>539</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>348</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>267</v>
+        <v>555</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>349</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -6506,11 +6969,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6519,19 +6983,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -6552,16 +7016,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>504</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -6569,33 +7033,33 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>268</v>
+        <v>556</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>479</v>
+        <v>421</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>197</v>
+        <v>539</v>
       </c>
       <c r="F5" s="1">
         <v>8</v>
@@ -6615,12 +7079,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6629,19 +7093,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -6662,16 +7126,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -6679,36 +7143,36 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>372</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>269</v>
+        <v>557</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>468</v>
+        <v>410</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>197</v>
+        <v>539</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>469</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -6725,12 +7189,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6739,19 +7203,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>371</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -6772,16 +7236,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -6789,36 +7253,36 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>372</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>270</v>
+        <v>558</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>470</v>
+        <v>412</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>197</v>
+        <v>539</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>471</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -6835,12 +7299,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6849,19 +7313,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -6882,16 +7346,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>504</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -6899,36 +7363,36 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>271</v>
+        <v>559</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>472</v>
+        <v>414</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>197</v>
+        <v>539</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -6959,13 +7423,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>383</v>
+        <v>325</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>384</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -6973,13 +7437,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>385</v>
+        <v>327</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>386</v>
+        <v>328</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>382</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -6988,10 +7452,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>387</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -6999,35 +7463,35 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>374</v>
+        <v>316</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>388</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>544</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>507</v>
+        <v>446</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>543</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -7059,13 +7523,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>541</v>
+        <v>479</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>384</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -7073,13 +7537,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>542</v>
+        <v>480</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>386</v>
+        <v>328</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>382</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -7088,10 +7552,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>387</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -7099,35 +7563,35 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>535</v>
+        <v>473</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>388</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>536</v>
+        <v>474</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>543</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>537</v>
+        <v>475</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>543</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -7150,7 +7614,7 @@
     <col min="3" max="3" width="27.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="74.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7162,7 +7626,7 @@
         <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -7174,7 +7638,7 @@
         <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -7198,7 +7662,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>22</v>
@@ -7210,7 +7674,7 @@
         <v>33</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -7221,7 +7685,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>28</v>
@@ -7230,136 +7694,136 @@
         <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>433</v>
+        <v>375</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>434</v>
+        <v>376</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F7" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>207</v>
+      <c r="F7" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>435</v>
+        <v>377</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>204</v>
+        <v>442</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>436</v>
+        <v>378</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>437</v>
+        <v>379</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -7388,13 +7852,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -7411,10 +7875,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -7422,32 +7886,32 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>497</v>
+        <v>438</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>498</v>
+        <v>439</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>499</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>497</v>
+        <v>438</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>500</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -7464,8 +7928,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.69921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -7479,22 +7942,22 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -7514,19 +7977,19 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -7534,36 +7997,36 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>501</v>
+        <v>440</v>
       </c>
       <c r="D5" s="1">
         <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F5" s="1">
         <v>20</v>
@@ -7597,7 +8060,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -7626,7 +8089,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>28</v>
@@ -7634,10 +8097,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -7654,9 +8117,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7665,10 +8128,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -7684,7 +8147,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -7692,18 +8155,18 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>500</v>
+        <v>548</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>502</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -7722,14 +8185,14 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7738,28 +8201,28 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>32</v>
@@ -7787,25 +8250,25 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>34</v>
@@ -7816,130 +8279,130 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>238</v>
+        <v>550</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>539</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>263</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>264</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>265</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>266</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>267</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>268</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>269</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>270</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>271</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/transformations-downgrade.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/transformations-downgrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C1F145-5EEB-4DB6-A62D-CF77F7464985}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD48BA8-CBE9-432E-BD16-F9A5803E847C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="858" xr2:uid="{9E23536D-03D7-486C-92D0-E50AB185E4CC}"/>
   </bookViews>
@@ -62,10 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="611">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="610">
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
@@ -136,18 +133,9 @@
     <t>rdfs:comment</t>
   </si>
   <si>
-    <t>:rightsHolder</t>
-  </si>
-  <si>
-    <t>:rightsHeld</t>
-  </si>
-  <si>
     <t>datatype</t>
   </si>
   <si>
-    <t>:Rights</t>
-  </si>
-  <si>
     <t>rdf:langString</t>
   </si>
   <si>
@@ -163,30 +151,12 @@
     <t>annotation</t>
   </si>
   <si>
-    <t>:leader</t>
-  </si>
-  <si>
-    <t>:annotation</t>
-  </si>
-  <si>
-    <t>:ExperimenterGroup</t>
-  </si>
-  <si>
-    <t>:Annotation</t>
-  </si>
-  <si>
     <t>Instrument</t>
   </si>
   <si>
-    <t>:Instrument</t>
-  </si>
-  <si>
     <t>Detector</t>
   </si>
   <si>
-    <t>:Detector</t>
-  </si>
-  <si>
     <t>xsd:float</t>
   </si>
   <si>
@@ -199,15 +169,6 @@
     <t>calibrated maginification</t>
   </si>
   <si>
-    <t>:nominalMagnification</t>
-  </si>
-  <si>
-    <t>:calibratedMagnification</t>
-  </si>
-  <si>
-    <t>:Objective</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
@@ -226,30 +187,9 @@
     <t>region of interest</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
-    <t>:experimenterGroup</t>
-  </si>
-  <si>
-    <t>:regionOfInterest</t>
-  </si>
-  <si>
-    <t>:Image</t>
-  </si>
-  <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
-    <t>:RegionOfInterest</t>
-  </si>
-  <si>
     <t>Pixels</t>
   </si>
   <si>
@@ -283,21 +223,9 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
-    <t>:PixelType</t>
-  </si>
-  <si>
     <t>xsd:positiveInteger</t>
   </si>
   <si>
-    <t>:BinData</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -307,15 +235,6 @@
     <t>acquisition mode</t>
   </si>
   <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:acquisitionMode</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
     <t>Binary Data</t>
   </si>
   <si>
@@ -325,12 +244,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>:length</t>
-  </si>
-  <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:long</t>
   </si>
   <si>
@@ -343,9 +256,6 @@
     <t>union</t>
   </si>
   <si>
-    <t>:union</t>
-  </si>
-  <si>
     <t>rdf:Bag</t>
   </si>
   <si>
@@ -355,9 +265,6 @@
     <t>XML annotation value</t>
   </si>
   <si>
-    <t>:XMLAnnotation</t>
-  </si>
-  <si>
     <t>rdf:XMLLiteral</t>
   </si>
   <si>
@@ -367,18 +274,12 @@
     <t>Comment Annotation</t>
   </si>
   <si>
-    <t>:CommentAnnotation</t>
-  </si>
-  <si>
     <t>Double Annotation</t>
   </si>
   <si>
     <t>double annotation value</t>
   </si>
   <si>
-    <t>:DoubleAnnotation</t>
-  </si>
-  <si>
     <t>xsd:double</t>
   </si>
   <si>
@@ -388,60 +289,33 @@
     <t>binary file</t>
   </si>
   <si>
-    <t>:FileAnnotation</t>
-  </si>
-  <si>
     <t>List Annotation</t>
   </si>
   <si>
-    <t>:ListAnnotation</t>
-  </si>
-  <si>
     <t>Long Annotation</t>
   </si>
   <si>
     <t>long annotation value</t>
   </si>
   <si>
-    <t>:LongAnnotation</t>
-  </si>
-  <si>
     <t>Tag Annotation</t>
   </si>
   <si>
-    <t>:TagAnnotation</t>
-  </si>
-  <si>
     <t>Term Annotation</t>
   </si>
   <si>
-    <t>:TermAnnotation</t>
-  </si>
-  <si>
     <t>Timestamp Annotation</t>
   </si>
   <si>
     <t>timestamp annotation value</t>
   </si>
   <si>
-    <t>:TimestampAnnotation</t>
-  </si>
-  <si>
     <t>Point</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>:y</t>
-  </si>
-  <si>
-    <t>:x</t>
-  </si>
-  <si>
-    <t>:Point</t>
-  </si>
-  <si>
     <t>Rectangle</t>
   </si>
   <si>
@@ -451,33 +325,15 @@
     <t>width</t>
   </si>
   <si>
-    <t>:height</t>
-  </si>
-  <si>
-    <t>:width</t>
-  </si>
-  <si>
-    <t>:Rectangle</t>
-  </si>
-  <si>
     <t>Label</t>
   </si>
   <si>
-    <t>:Label</t>
-  </si>
-  <si>
     <t>Polygon</t>
   </si>
   <si>
     <t>point</t>
   </si>
   <si>
-    <t>:point</t>
-  </si>
-  <si>
-    <t>:Polygon</t>
-  </si>
-  <si>
     <t>Polyline</t>
   </si>
   <si>
@@ -487,18 +343,6 @@
     <t>marker start</t>
   </si>
   <si>
-    <t>:markerEnd</t>
-  </si>
-  <si>
-    <t>:markerStart</t>
-  </si>
-  <si>
-    <t>:Polyline</t>
-  </si>
-  <si>
-    <t>:Marker</t>
-  </si>
-  <si>
     <t>Line</t>
   </si>
   <si>
@@ -514,21 +358,6 @@
     <t>y1</t>
   </si>
   <si>
-    <t>:x2</t>
-  </si>
-  <si>
-    <t>:y2</t>
-  </si>
-  <si>
-    <t>:x1</t>
-  </si>
-  <si>
-    <t>:y1</t>
-  </si>
-  <si>
-    <t>:Line</t>
-  </si>
-  <si>
     <t>foaf</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -692,10 +521,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:experimenter</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"MyGroup - Leader+Contact match"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -744,14 +569,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:ManufacturerSpec</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:manufacturerSpec</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>manufacturer spec</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -760,22 +577,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:Manufacturer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:string</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:manufacturer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:lotNumber</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>manufacturer</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -788,9 +593,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:Manufacturer</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
@@ -818,10 +620,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:AcquisitionMode</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -905,9 +703,6 @@
     <t>rdf:li</t>
   </si>
   <si>
-    <t>:Shape</t>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -956,65 +751,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:x</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:y</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fillColor</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fillRule</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fontFamily</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fontSize</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fontStyle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:strokeColor</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:strokeDashArray</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:strokeWidth</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:text</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:theC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:FillRule</t>
-  </si>
-  <si>
-    <t>:FontStyle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Color</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:nonNegativeInteger</t>
   </si>
   <si>
@@ -1026,22 +762,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:tramsform</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:FillRule</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Transform</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:FontFamily</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>fillRule:evenOdd</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1054,14 +774,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:theT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:theZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>marker:arrow</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1070,10 +782,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:annotator</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"Abc123"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1086,10 +794,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:BooleanAnnotation</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Boolean Annotation</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1104,9 +808,6 @@
     <t>size</t>
   </si>
   <si>
-    <t>:size</t>
-  </si>
-  <si>
     <t>"dummy.txt"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1115,23 +816,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>annotation</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:annotation</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Annotation</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1247,10 +932,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixelType:uint8</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1299,46 +980,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Holder</t>
   </si>
   <si>
@@ -1498,10 +1139,6 @@
     <t>Annotation:11</t>
   </si>
   <si>
-    <t>:Color</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ROI:1</t>
   </si>
   <si>
@@ -1524,30 +1161,13 @@
     <t>interleaved</t>
   </si>
   <si>
-    <t>:interleaved</t>
-  </si>
-  <si>
     <t>significant bits</t>
   </si>
   <si>
-    <t>:significantBits</t>
-  </si>
-  <si>
-    <t>:DetectorSettings</t>
-  </si>
-  <si>
     <t>detector settings</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:detectorSettings</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DetectorSettings</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Detector:1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1555,23 +1175,13 @@
     <t>integration</t>
   </si>
   <si>
-    <t>:integration</t>
-  </si>
-  <si>
     <t>zoom</t>
   </si>
   <si>
-    <t>:zoom</t>
-  </si>
-  <si>
     <t>locked</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:locked</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:boolean</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1600,14 +1210,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:binaryFile</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinaryFile</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[size:1pt]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1620,10 +1222,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:StructuredAnnotations</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[structuredAnnotation:0]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1632,10 +1230,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:Font</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[font:shape2]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1644,10 +1238,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:font</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Affine Transform</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1673,34 +1263,6 @@
   </si>
   <si>
     <t>a12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a01</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a02</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a10</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a11</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:AffineTransform</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2254,6 +1816,506 @@
   </si>
   <si>
     <t>foaf:Person</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Rights</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:rightsHolder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:rightsHeld</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ExperimenterGroup</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:leader</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:experimenter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Instrument</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:manufacturerSpec</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ManufacturerSpec</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Objective</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lotNumber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:nominalMagnification</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:calibratedMagnification</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Detector</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:experimenterGroup</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:regionOfInterest</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:RegionOfInterest</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:interleaved</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:significantBits</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionMode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:AcquisitionMode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:detectorSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DetectorSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DetectorSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:integration</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:zoom</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:union</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Shape</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Point</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fillColor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fillRule</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FillRule</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:font</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Font</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:strokeColor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:strokeDashArray</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:strokeWidth</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:theC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:locked</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Rectangle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:height</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:width</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FillRule</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:tramsform</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:AffineTransform</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Label</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:theT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:theZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Polygon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:point</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Polyline</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:markerStart</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Marker</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:markerEnd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Line</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:x1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:y1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:x2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:y2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fontStyle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FontStyle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fontFamily</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FontFamily</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fontSize</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:StructuredAnnotations</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:XMLAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:annotator</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BooleanAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:CommentAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DoubleAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FileAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinaryFile</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:size</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ListAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LongAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:TagAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:TermAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:TimestampAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binaryFile</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:AffineTramsform</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2685,426 +2747,426 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>332</v>
+        <v>238</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>333</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>334</v>
+        <v>240</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>335</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>336</v>
+        <v>242</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>337</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>331</v>
+        <v>237</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>343</v>
+        <v>248</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>244</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>483</v>
+        <v>357</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>485</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>342</v>
+        <v>247</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>346</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>344</v>
+        <v>249</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>345</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>347</v>
+        <v>252</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>348</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>349</v>
+        <v>254</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>350</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>486</v>
+        <v>360</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>512</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>487</v>
+        <v>361</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>513</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>488</v>
+        <v>362</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>514</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>489</v>
+        <v>363</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>515</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>490</v>
+        <v>364</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>516</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>491</v>
+        <v>365</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>517</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>492</v>
+        <v>366</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>518</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>493</v>
+        <v>367</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>519</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>494</v>
+        <v>368</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>520</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>495</v>
+        <v>369</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>521</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>496</v>
+        <v>370</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>522</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>497</v>
+        <v>371</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>523</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>498</v>
+        <v>372</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>524</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>499</v>
+        <v>373</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>525</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>500</v>
+        <v>374</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>526</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>501</v>
+        <v>375</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>527</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>502</v>
+        <v>376</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>528</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>503</v>
+        <v>377</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>529</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>504</v>
+        <v>378</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>530</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>505</v>
+        <v>379</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>531</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>506</v>
+        <v>380</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>532</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>507</v>
+        <v>381</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>533</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>508</v>
+        <v>382</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>534</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>509</v>
+        <v>383</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>535</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>510</v>
+        <v>384</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>536</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>511</v>
+        <v>385</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>537</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -3127,9 +3189,10 @@
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.5" style="1" bestFit="1" customWidth="1"/>
@@ -3138,57 +3201,57 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>338</v>
+        <v>244</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>422</v>
+        <v>316</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>424</v>
+        <v>317</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3208,114 +3271,114 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>339</v>
+        <v>512</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>352</v>
+        <v>514</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>73</v>
+        <v>516</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>423</v>
+        <v>517</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>425</v>
+        <v>518</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>354</v>
+        <v>519</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>355</v>
+        <v>520</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>356</v>
+        <v>521</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>357</v>
+        <v>522</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>358</v>
+        <v>523</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>359</v>
+        <v>524</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>360</v>
+        <v>525</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>307</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>505</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>74</v>
+        <v>513</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>353</v>
+        <v>515</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>361</v>
+        <v>526</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>308</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>550</v>
+        <v>424</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>382</v>
+        <v>277</v>
       </c>
       <c r="D5" t="s">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>341</v>
+        <v>246</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -3327,7 +3390,7 @@
         <v>7</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>317</v>
+        <v>223</v>
       </c>
       <c r="J5" s="1">
         <v>3</v>
@@ -3345,32 +3408,32 @@
         <v>1</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>560</v>
+        <v>434</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>563</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>550</v>
+        <v>424</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>564</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>550</v>
+        <v>424</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>562</v>
+        <v>436</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>565</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -3383,9 +3446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC20C595-95A1-469F-94B0-84FBA71A6D8A}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3400,27 +3461,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>427</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3430,85 +3491,85 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>81</v>
+        <v>530</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>82</v>
+        <v>532</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>428</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>529</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>531</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>230</v>
+        <v>533</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>429</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>560</v>
+        <v>434</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>383</v>
+        <v>278</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>566</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>384</v>
+        <v>279</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>245</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>562</v>
+        <v>436</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>385</v>
+        <v>280</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3529,31 +3590,31 @@
     <col min="2" max="2" width="31.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9"/>
+    <col min="5" max="5" width="9.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>470</v>
+        <v>344</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>431</v>
+        <v>320</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>433</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3562,42 +3623,42 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>432</v>
+        <v>537</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>434</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>426</v>
+        <v>536</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>566</v>
+        <v>440</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>430</v>
+        <v>319</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -3628,45 +3689,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>232</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>531</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -3674,7 +3735,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -3696,7 +3757,7 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -3704,24 +3765,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3730,45 +3791,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>73</v>
+        <v>516</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>88</v>
+        <v>540</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>87</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>539</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>447</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>563</v>
+        <v>437</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -3776,13 +3837,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>564</v>
+        <v>438</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
@@ -3790,13 +3851,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>565</v>
+        <v>439</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
@@ -3804,13 +3865,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>567</v>
+        <v>441</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>351</v>
+        <v>256</v>
       </c>
       <c r="E8" s="1">
         <v>8</v>
@@ -3831,125 +3892,126 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>93</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>509</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>416</v>
+        <v>310</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>417</v>
+        <v>311</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>418</v>
+        <v>312</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>419</v>
+        <v>313</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>420</v>
+        <v>314</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>249</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3966,152 +4028,152 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>253</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>568</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>569</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>570</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>571</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>572</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>573</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>574</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>575</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>576</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>577</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>578</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>249</v>
+        <v>184</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>579</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>249</v>
+        <v>184</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>580</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -4128,69 +4190,69 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>454</v>
+        <v>336</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>435</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4208,96 +4270,96 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>266</v>
+        <v>545</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>267</v>
+        <v>546</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>268</v>
+        <v>547</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>269</v>
+        <v>549</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>455</v>
+        <v>551</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>273</v>
+        <v>553</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>274</v>
+        <v>554</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>275</v>
+        <v>555</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>276</v>
+        <v>556</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>277</v>
+        <v>557</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>436</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>544</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>415</v>
+        <v>548</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>278</v>
+        <v>550</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>452</v>
+        <v>552</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>280</v>
+        <v>548</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>473</v>
+        <v>347</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>437</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>568</v>
+        <v>442</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>386</v>
+        <v>281</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -4311,10 +4373,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>569</v>
+        <v>443</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>387</v>
+        <v>282</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -4323,25 +4385,25 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>453</v>
+        <v>335</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>474</v>
+        <v>348</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>388</v>
+        <v>283</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
@@ -4352,7 +4414,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>581</v>
+        <v>455</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -4363,7 +4425,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>582</v>
+        <v>456</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -4374,7 +4436,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>583</v>
+        <v>457</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -4385,7 +4447,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>584</v>
+        <v>458</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
@@ -4396,7 +4458,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>585</v>
+        <v>459</v>
       </c>
       <c r="D11" s="1">
         <v>15</v>
@@ -4407,7 +4469,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>586</v>
+        <v>460</v>
       </c>
       <c r="D12" s="1">
         <v>15</v>
@@ -4418,7 +4480,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>587</v>
+        <v>461</v>
       </c>
       <c r="D13" s="1">
         <v>25</v>
@@ -4429,7 +4491,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>588</v>
+        <v>462</v>
       </c>
       <c r="D14" s="1">
         <v>25</v>
@@ -4440,7 +4502,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>589</v>
+        <v>463</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -4451,7 +4513,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>590</v>
+        <v>464</v>
       </c>
       <c r="D16" s="1">
         <v>10</v>
@@ -4462,7 +4524,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>591</v>
+        <v>465</v>
       </c>
       <c r="D17" s="1">
         <v>20</v>
@@ -4473,7 +4535,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>592</v>
+        <v>466</v>
       </c>
       <c r="D18" s="1">
         <v>20</v>
@@ -4499,7 +4561,9 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.796875" style="1" bestFit="1" customWidth="1"/>
@@ -4508,39 +4572,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>283</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4554,72 +4618,72 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>124</v>
+        <v>560</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>123</v>
+        <v>561</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>129</v>
+        <v>562</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>130</v>
+        <v>563</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>269</v>
+        <v>549</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>276</v>
+        <v>556</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>284</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>131</v>
+        <v>559</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>285</v>
+        <v>564</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>286</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>593</v>
+        <v>467</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>389</v>
+        <v>284</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -4634,18 +4698,19 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="I5" t="s">
-        <v>390</v>
+        <v>285</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>594</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4659,39 +4724,39 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>456</v>
+        <v>337</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>457</v>
+        <v>338</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>458</v>
+        <v>339</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>460</v>
+        <v>341</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>461</v>
+        <v>342</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>462</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4703,57 +4768,57 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>463</v>
+        <v>567</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>464</v>
+        <v>568</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>465</v>
+        <v>569</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>466</v>
+        <v>570</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>467</v>
+        <v>571</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>468</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>469</v>
+        <v>566</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>594</v>
+        <v>468</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -4788,30 +4853,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4819,39 +4884,39 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>487</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>486</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>362</v>
+        <v>257</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>363</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4875,64 +4940,64 @@
     <col min="6" max="6" width="15.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>323</v>
+        <v>229</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>454</v>
+        <v>336</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4951,102 +5016,102 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>124</v>
+        <v>560</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>123</v>
+        <v>561</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>269</v>
+        <v>549</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>455</v>
+        <v>551</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>276</v>
+        <v>556</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>268</v>
+        <v>547</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>273</v>
+        <v>553</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>275</v>
+        <v>555</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>277</v>
+        <v>557</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>291</v>
+        <v>574</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>292</v>
+        <v>575</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>274</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>285</v>
+        <v>564</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>452</v>
+        <v>552</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>280</v>
+        <v>548</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>280</v>
+        <v>548</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>473</v>
+        <v>347</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>471</v>
+        <v>345</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>471</v>
+        <v>345</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>471</v>
+        <v>345</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>595</v>
+        <v>469</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>391</v>
+        <v>286</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5055,22 +5120,22 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>599</v>
+        <v>473</v>
       </c>
       <c r="H5" t="s">
-        <v>388</v>
+        <v>283</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>474</v>
+        <v>348</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -5082,15 +5147,15 @@
         <v>0</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>392</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>596</v>
+        <v>470</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>393</v>
+        <v>288</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -5099,15 +5164,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>394</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>597</v>
+        <v>471</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>395</v>
+        <v>290</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -5116,15 +5181,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>394</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>598</v>
+        <v>472</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>396</v>
+        <v>291</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -5133,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>394</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5154,34 +5219,34 @@
     <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5191,81 +5256,81 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>136</v>
+        <v>577</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>273</v>
+        <v>553</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>275</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>137</v>
+        <v>576</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>125</v>
+        <v>544</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>280</v>
+        <v>548</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>473</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>600</v>
+        <v>474</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>397</v>
+        <v>292</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>581</v>
+        <v>455</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>475</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>600</v>
+        <v>474</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>582</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>600</v>
+        <v>474</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>583</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>600</v>
+        <v>474</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>584</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -5283,44 +5348,45 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5332,143 +5398,143 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>136</v>
+        <v>577</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>142</v>
+        <v>579</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>141</v>
+        <v>581</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>273</v>
+        <v>553</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>275</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>143</v>
+        <v>578</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>125</v>
+        <v>544</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>144</v>
+        <v>580</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>144</v>
+        <v>580</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>280</v>
+        <v>548</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>473</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>601</v>
+        <v>475</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>398</v>
+        <v>293</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>585</v>
+        <v>459</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>475</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>601</v>
+        <v>475</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>586</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>601</v>
+        <v>475</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>587</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>601</v>
+        <v>475</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>588</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>602</v>
+        <v>476</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>399</v>
+        <v>294</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>589</v>
+        <v>463</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>475</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>602</v>
+        <v>476</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>590</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>602</v>
+        <v>476</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>591</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>602</v>
+        <v>476</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>592</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -5486,53 +5552,54 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="9" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5547,78 +5614,78 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>152</v>
+        <v>583</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>153</v>
+        <v>584</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>150</v>
+        <v>585</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>151</v>
+        <v>586</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>142</v>
+        <v>579</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>141</v>
+        <v>581</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>273</v>
+        <v>553</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>275</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>154</v>
+        <v>582</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>144</v>
+        <v>580</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>144</v>
+        <v>580</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>280</v>
+        <v>548</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>473</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>603</v>
+        <v>477</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>400</v>
+        <v>295</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5633,24 +5700,24 @@
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>475</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>604</v>
+        <v>478</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>401</v>
+        <v>296</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -5665,21 +5732,21 @@
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>475</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>605</v>
+        <v>479</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>402</v>
+        <v>297</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -5694,13 +5761,13 @@
         <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>475</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -5717,33 +5784,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>451</v>
+        <v>334</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5752,61 +5819,61 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>272</v>
+        <v>587</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>270</v>
+        <v>589</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>271</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>452</v>
+        <v>552</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>279</v>
+        <v>588</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>287</v>
+        <v>590</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
-        <v>606</v>
+        <v>480</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>320</v>
+        <v>226</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>319</v>
+        <v>225</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>446</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>599</v>
+        <v>473</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>321</v>
+        <v>227</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>322</v>
+        <v>228</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -5824,135 +5891,135 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>448</v>
+        <v>332</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>309</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>310</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>449</v>
+        <v>592</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>311</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>607</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>608</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>551</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>552</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>553</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>554</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>555</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>556</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>557</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>558</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>559</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -5966,9 +6033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601D4739-5BA5-4417-B7F7-9D3546DE6FF9}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5981,106 +6046,106 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>295</v>
+        <v>595</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>443</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>594</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>607</v>
+        <v>481</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>403</v>
+        <v>298</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>608</v>
+        <v>482</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>404</v>
+        <v>299</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6109,86 +6174,86 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>300</v>
+        <v>211</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>295</v>
+        <v>595</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>443</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>299</v>
+        <v>596</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>551</v>
+        <v>425</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>405</v>
+        <v>300</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>1</v>
@@ -6204,9 +6269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E8A63D-CFFD-4DB6-B731-67110CA28E2D}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6221,86 +6284,86 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>476</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>295</v>
+        <v>595</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>477</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>101</v>
+        <v>597</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>478</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>552</v>
+        <v>426</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>406</v>
+        <v>301</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6328,86 +6391,86 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>295</v>
+        <v>595</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>443</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>598</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>553</v>
+        <v>427</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>407</v>
+        <v>302</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="F5" s="1">
         <v>3.14</v>
@@ -6439,30 +6502,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6473,160 +6536,160 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>538</v>
+        <v>412</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>364</v>
+        <v>259</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>374</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
-        <v>540</v>
+        <v>414</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
-        <v>541</v>
+        <v>415</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>367</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
-        <v>542</v>
+        <v>416</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>368</v>
+        <v>263</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>374</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>543</v>
+        <v>417</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>369</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
-        <v>544</v>
+        <v>418</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>370</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
-        <v>545</v>
+        <v>419</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>371</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
-        <v>546</v>
+        <v>420</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>372</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
-        <v>547</v>
+        <v>421</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>373</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -6654,89 +6717,89 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>295</v>
+        <v>595</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>444</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>108</v>
+        <v>599</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>445</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>554</v>
+        <v>428</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>408</v>
+        <v>303</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>609</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -6749,9 +6812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D167A89E-CCE1-4BC2-A037-A330CEDDF968}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6759,82 +6820,82 @@
     <col min="2" max="2" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>302</v>
+        <v>213</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>303</v>
+        <v>214</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>306</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>304</v>
+        <v>601</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>307</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>445</v>
+        <v>600</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>447</v>
+        <v>331</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>308</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>609</v>
+        <v>483</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>567</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -6862,97 +6923,97 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>309</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>295</v>
+        <v>595</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>310</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>110</v>
+        <v>602</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>311</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>555</v>
+        <v>429</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>409</v>
+        <v>304</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>607</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>555</v>
+        <v>429</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>608</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -6980,86 +7041,86 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>295</v>
+        <v>595</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>443</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>113</v>
+        <v>604</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>556</v>
+        <v>430</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>421</v>
+        <v>315</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="F5" s="1">
         <v>8</v>
@@ -7090,89 +7151,89 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>315</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>295</v>
+        <v>595</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>115</v>
+        <v>605</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>314</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>557</v>
+        <v>431</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>410</v>
+        <v>305</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>411</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -7200,89 +7261,89 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>313</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>295</v>
+        <v>595</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>117</v>
+        <v>606</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>314</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>558</v>
+        <v>432</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>412</v>
+        <v>307</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>413</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -7310,89 +7371,89 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>295</v>
+        <v>595</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>443</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>120</v>
+        <v>607</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>559</v>
+        <v>433</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>414</v>
+        <v>309</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7420,78 +7481,78 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>325</v>
+        <v>231</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>328</v>
+        <v>234</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>329</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>330</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>317</v>
+        <v>223</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>482</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>446</v>
+        <v>330</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>481</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -7520,78 +7581,78 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>479</v>
+        <v>353</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>480</v>
+        <v>354</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>328</v>
+        <v>234</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>329</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>473</v>
+        <v>347</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>330</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>474</v>
+        <v>348</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>481</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>475</v>
+        <v>349</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>481</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -7620,210 +7681,210 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>490</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>198</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>489</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>472</v>
+        <v>346</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>472</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>375</v>
+        <v>270</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>538</v>
+        <v>412</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>540</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>538</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>541</v>
+        <v>415</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>546</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>377</v>
+        <v>272</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>442</v>
+        <v>328</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>541</v>
+        <v>415</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>543</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>542</v>
+        <v>416</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>544</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>547</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>378</v>
+        <v>273</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>547</v>
+        <v>421</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>545</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>541</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>541</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -7840,30 +7901,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7871,47 +7932,47 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>212</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>492</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>211</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>438</v>
+        <v>324</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>439</v>
+        <v>325</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>549</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>438</v>
+        <v>324</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>548</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -7928,41 +7989,42 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7973,60 +8035,60 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>218</v>
+        <v>496</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>217</v>
+        <v>497</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>499</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>46</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>495</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>215</v>
+        <v>498</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>549</v>
+        <v>423</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>440</v>
+        <v>326</v>
       </c>
       <c r="D5" s="1">
         <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="F5" s="1">
         <v>20</v>
@@ -8057,50 +8119,50 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>222</v>
+        <v>501</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -8125,48 +8187,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>502</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>548</v>
+        <v>422</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>441</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -8191,51 +8253,51 @@
     <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="42.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -8246,163 +8308,163 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>54</v>
+        <v>504</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>55</v>
+        <v>506</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>198</v>
+        <v>491</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>56</v>
+        <v>507</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>57</v>
+        <v>508</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>34</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>503</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>505</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>472</v>
+        <v>346</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>610</v>
+        <v>484</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>61</v>
+        <v>509</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>36</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>381</v>
+        <v>276</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>550</v>
+        <v>424</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>551</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>552</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>553</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>554</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>555</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>556</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>557</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>558</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>559</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
